--- a/public/sheets/histperformance.xlsx
+++ b/public/sheets/histperformance.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Angold4/WorkSpace/compass-ui/public/sheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{91CB674A-3294-E346-99CB-B54EBCC1D517}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9659E04-E1B7-334B-A3D9-86138120531D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6400" yWindow="7220" windowWidth="26840" windowHeight="15940" xr2:uid="{190E9287-5F6D-0F4F-90B1-E05B319E7A7C}"/>
+    <workbookView xWindow="9620" yWindow="6200" windowWidth="26840" windowHeight="20300" xr2:uid="{190E9287-5F6D-0F4F-90B1-E05B319E7A7C}"/>
   </bookViews>
   <sheets>
     <sheet name="PortPerf" sheetId="1" r:id="rId1"/>
@@ -586,7 +586,7 @@
       <pane xSplit="1" ySplit="6" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="B7" sqref="B7"/>
+      <selection pane="bottomRight" activeCell="F48" sqref="F48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.15"/>
@@ -1092,7 +1092,7 @@
         <v>0.99914989448581382</v>
       </c>
       <c r="Q12" s="5">
-        <f t="shared" si="5"/>
+        <f>IF(P12="","",IF(P11="",P12,Q11*P12))</f>
         <v>0.99775557617599986</v>
       </c>
       <c r="R12" s="5" t="str">
